--- a/sic/Estado de Actividades_Ceups - 2015.xlsx
+++ b/sic/Estado de Actividades_Ceups - 2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="14115" windowHeight="5460"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$3:$G$30</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>Mes</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Revisión de los cursos de la empresa Ilatech</t>
+  </si>
+  <si>
+    <t>modificado por waldo torres</t>
   </si>
 </sst>
 </file>
@@ -228,11 +231,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G32"/>
+  <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,24 +554,27 @@
     <col min="6" max="7" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -584,7 +590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -600,7 +606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -616,7 +622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -632,7 +638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
@@ -650,7 +656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -669,7 +675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
@@ -685,7 +691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
@@ -701,7 +707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
@@ -717,7 +723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
@@ -733,7 +739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
@@ -749,7 +755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -765,7 +771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
@@ -781,7 +787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +1041,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="6" t="s">

--- a/sic/Estado de Actividades_Ceups - 2015.xlsx
+++ b/sic/Estado de Actividades_Ceups - 2015.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JNAMUCHE\Documents\POSTGRADO\MAESTRIA URP\IV CICLO\ADM DE LA CONFIGURACION\gmd\sic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="14115" windowHeight="5460"/>
   </bookViews>
@@ -14,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$3:$G$30</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
   <si>
     <t>Mes</t>
   </si>
@@ -133,6 +138,9 @@
   </si>
   <si>
     <t>modificado por waldo torres</t>
+  </si>
+  <si>
+    <t>Juan Namuche</t>
   </si>
 </sst>
 </file>
@@ -247,6 +255,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -294,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H32"/>
+  <dimension ref="B1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +565,7 @@
     <col min="6" max="7" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>22</v>
       </c>
@@ -564,7 +575,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -574,7 +585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -590,7 +601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -605,8 +616,11 @@
       <c r="G4" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -622,7 +636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -638,7 +652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
@@ -656,7 +670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -675,7 +689,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
@@ -691,7 +705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
@@ -707,7 +721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
@@ -723,7 +737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
@@ -739,7 +753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
@@ -755,7 +769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -771,7 +785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
@@ -787,7 +801,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>

--- a/sic/Estado de Actividades_Ceups - 2015.xlsx
+++ b/sic/Estado de Actividades_Ceups - 2015.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JC\RepositorioJC\gmd\sic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="14115" windowHeight="5460"/>
   </bookViews>
@@ -14,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$3:$G$30</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>Mes</t>
   </si>
@@ -130,6 +135,9 @@
   </si>
   <si>
     <t>Revisión de los cursos de la empresa Ilatech</t>
+  </si>
+  <si>
+    <t>JCHidalgo</t>
   </si>
 </sst>
 </file>
@@ -207,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,11 +236,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -243,6 +254,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -291,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G32"/>
+  <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,24 +565,24 @@
     <col min="6" max="7" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
@@ -583,8 +597,11 @@
       <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -600,7 +617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
@@ -616,7 +633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -632,7 +649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
@@ -650,7 +667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -669,7 +686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
@@ -685,7 +702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
@@ -701,7 +718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
@@ -717,7 +734,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
@@ -733,7 +750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
@@ -749,7 +766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -765,7 +782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
@@ -781,7 +798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +1052,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="6" t="s">

--- a/sic/Estado de Actividades_Ceups - 2015.xlsx
+++ b/sic/Estado de Actividades_Ceups - 2015.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JNAMUCHE\Documents\POSTGRADO\MAESTRIA URP\IV CICLO\ADM DE LA CONFIGURACION\gmd\sic\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="14115" windowHeight="5460"/>
   </bookViews>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$3:$G$30</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
   <si>
     <t>Mes</t>
   </si>
@@ -141,6 +136,9 @@
   </si>
   <si>
     <t>Juan Namuche</t>
+  </si>
+  <si>
+    <t>eddy</t>
   </si>
 </sst>
 </file>
@@ -305,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,7 +338,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -552,7 +550,7 @@
   <dimension ref="B1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,6 +648,9 @@
       </c>
       <c r="G6" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
